--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfigProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -44,9 +44,15 @@
     <t>Base</t>
   </si>
   <si>
+    <t>Ratio</t>
+  </si>
+  <si>
     <t>SkillRange</t>
   </si>
   <si>
+    <t>Consume</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -77,7 +83,13 @@
     <t>基础伤害/治疗值</t>
   </si>
   <si>
+    <t>附加百分比值</t>
+  </si>
+  <si>
     <t>技能作用范围</t>
+  </si>
+  <si>
+    <t>技能消耗</t>
   </si>
   <si>
     <t>技能11001</t>
@@ -1078,24 +1090,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.125" style="5" customWidth="1"/>
     <col min="2" max="3" width="12.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="5" max="6" width="16.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,53 +1126,71 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="13.5" spans="1:1">
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
       <c r="B5" s="4">
         <v>11001</v>
       </c>
@@ -1168,17 +1198,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4">
         <f>1000+100*C5</f>
         <v>1100</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="F5" s="4">
+        <f>C5*5</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5">
+        <f>10+C5-1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="4">
         <v>11001</v>
       </c>
@@ -1186,17 +1224,25 @@
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ref="E6:E14" si="0">1000+100*C6</f>
         <v>1200</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="2:6">
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F24" si="1">C6*5</f>
+        <v>10</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" ref="H6:H24" si="2">10+C6-1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="2:8">
       <c r="B7" s="4">
         <v>11001</v>
       </c>
@@ -1204,17 +1250,25 @@
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="7"/>
       <c r="B8" s="4">
         <v>11001</v>
@@ -1223,17 +1277,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
       <c r="B9" s="4">
         <v>11001</v>
       </c>
@@ -1241,17 +1303,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
       <c r="B10" s="4">
         <v>11001</v>
       </c>
@@ -1259,17 +1329,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="4">
         <v>11001</v>
       </c>
@@ -1277,17 +1355,25 @@
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>1700</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
       <c r="B12" s="4">
         <v>11001</v>
       </c>
@@ -1295,17 +1381,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
       <c r="B13" s="4">
         <v>11001</v>
       </c>
@@ -1313,17 +1407,25 @@
         <v>9</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:8">
       <c r="B14" s="4">
         <v>11001</v>
       </c>
@@ -1331,17 +1433,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="4">
         <v>11002</v>
       </c>
@@ -1349,17 +1459,25 @@
         <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E15" s="4">
         <f>1500+C15*150</f>
         <v>1650</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="4">
         <v>11002</v>
       </c>
@@ -1367,17 +1485,25 @@
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" ref="E16:E24" si="1">1500+C16*150</f>
+        <f t="shared" ref="E16:E24" si="3">1500+C16*150</f>
         <v>1800</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="4">
         <v>11002</v>
       </c>
@@ -1385,17 +1511,25 @@
         <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E17" s="4">
+        <f t="shared" si="3"/>
+        <v>1950</v>
+      </c>
+      <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>1950</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>15</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="4">
         <v>11002</v>
       </c>
@@ -1403,17 +1537,25 @@
         <v>4</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E18" s="4">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>2100</v>
-      </c>
-      <c r="F18" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="G18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="4">
         <v>11002</v>
       </c>
@@ -1421,17 +1563,25 @@
         <v>5</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E19" s="4">
+        <f t="shared" si="3"/>
+        <v>2250</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>2250</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+        <v>25</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="4">
         <v>11002</v>
       </c>
@@ -1439,17 +1589,25 @@
         <v>6</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E20" s="4">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>2400</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
+        <v>30</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="4">
         <v>11002</v>
       </c>
@@ -1457,17 +1615,25 @@
         <v>7</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E21" s="4">
+        <f t="shared" si="3"/>
+        <v>2550</v>
+      </c>
+      <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>2550</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
+        <v>35</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="4">
         <v>11002</v>
       </c>
@@ -1475,17 +1641,25 @@
         <v>8</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E22" s="4">
+        <f t="shared" si="3"/>
+        <v>2700</v>
+      </c>
+      <c r="F22" s="4">
         <f t="shared" si="1"/>
-        <v>2700</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
+        <v>40</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
       <c r="B23" s="4">
         <v>11002</v>
       </c>
@@ -1493,17 +1667,25 @@
         <v>9</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E23" s="4">
+        <f t="shared" si="3"/>
+        <v>2850</v>
+      </c>
+      <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>2850</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
+        <v>45</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
       <c r="B24" s="4">
         <v>11002</v>
       </c>
@@ -1511,315 +1693,373 @@
         <v>10</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="E24" s="4">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
+    </row>
+    <row r="25" spans="2:6">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="6"/>
       <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:5">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="6"/>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="2:5">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="6"/>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:5">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="6"/>
       <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:5">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="6"/>
       <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="2:5">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="6"/>
       <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="2:5">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="6"/>
       <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="2:5">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
       <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="2:5">
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="6"/>
       <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="2:5">
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
       <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="2:5">
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
       <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="2:5">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
       <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="2:5">
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="6"/>
       <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="2:5">
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="6"/>
       <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="2:5">
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="6"/>
       <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="2:5">
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
       <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="2:5">
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="6"/>
       <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="2:5">
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
       <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="2:5">
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="6"/>
       <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="2:5">
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
       <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="2:5">
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="6"/>
       <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="2:5">
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="6"/>
       <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="2:5">
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="6"/>
       <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="2:5">
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="6"/>
       <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="2:5">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="6"/>
       <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="2:5">
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="6"/>
       <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="2:5">
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="6"/>
       <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="2:5">
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="2:6">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
       <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="2:5">
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="6"/>
       <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="2:5">
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
       <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="2:5">
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
       <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="2:5">
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="6"/>
       <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="2:5">
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="6"/>
       <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="2:5">
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="2:6">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="6"/>
       <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="2:5">
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="2:6">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="6"/>
       <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="2:5">
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="2:6">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="6"/>
       <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="2:5">
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="2:6">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="6"/>
       <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="2:5">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="2:6">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="6"/>
       <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="2:5">
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="2:6">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="6"/>
       <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="2:5">
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="2:6">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="6"/>
       <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="2:5">
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="2:6">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="6"/>
       <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="2:5">
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="2:6">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="6"/>
       <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="2:5">
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="2:6">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="6"/>
       <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="2:5">
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="2:6">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="6"/>
       <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="2:5">
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="2:6">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="6"/>
       <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="2:5">
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="2:6">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="6"/>
       <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="2:5">
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="2:6">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="6"/>
       <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="2:5">
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="2:6">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="6"/>
       <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="2:5">
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="2:6">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="6"/>
       <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="2:5">
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="2:6">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="6"/>
       <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="2:3">
       <c r="B75" s="4"/>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="22260" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfigProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -38,6 +38,12 @@
     <t>Level</t>
   </si>
   <si>
+    <t>SkillName</t>
+  </si>
+  <si>
+    <t>SkillDesc</t>
+  </si>
+  <si>
     <t>##Desc</t>
   </si>
   <si>
@@ -53,21 +59,36 @@
     <t>Consume</t>
   </si>
   <si>
+    <t>LearnCurrencyType</t>
+  </si>
+  <si>
+    <t>LearnCurrencyValue</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
+    <t>CurrencyType</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -77,6 +98,12 @@
     <t>技能等级</t>
   </si>
   <si>
+    <t>技能名称</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -92,10 +119,19 @@
     <t>技能消耗</t>
   </si>
   <si>
+    <t>学习花费货币类型</t>
+  </si>
+  <si>
+    <t>学习花费货币</t>
+  </si>
+  <si>
     <t>技能11001</t>
   </si>
   <si>
     <t>单体</t>
+  </si>
+  <si>
+    <t>银币</t>
   </si>
   <si>
     <t>技能11002</t>
@@ -114,7 +150,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,19 +161,17 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -253,6 +287,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -645,102 +693,119 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1090,1072 +1155,1545 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="5" customWidth="1"/>
     <col min="2" max="3" width="12.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="16.125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="4" max="5" width="22.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="5" customWidth="1"/>
+    <col min="7" max="8" width="16.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="5" customWidth="1"/>
+    <col min="11" max="11" width="20" style="5" customWidth="1"/>
+    <col min="12" max="12" width="20.625" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:1">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:12">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:5">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:12">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" s="4">
-        <v>11001</v>
+        <v>111001</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="4" t="str">
+        <f>_xlfn.CONCAT("skillname_",B5)</f>
+        <v>skillname_111001</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f>_xlfn.CONCAT("skilldesc_",B5)</f>
+        <v>skilldesc_111001</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="4">
         <f>1000+100*C5</f>
         <v>1100</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="4">
         <f>C5*5</f>
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="5">
         <f>10+C5-1</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="K5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" s="4">
-        <v>11001</v>
+        <v>111002</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" ref="E6:E14" si="0">1000+100*C6</f>
+      <c r="D6" s="4" t="str">
+        <f t="shared" ref="D6:D24" si="0">_xlfn.CONCAT("skillname_",B6)</f>
+        <v>skillname_111002</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" ref="E6:E24" si="1">_xlfn.CONCAT("skilldesc_",B6)</f>
+        <v>skilldesc_111002</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" ref="G6:G14" si="2">1000+100*C6</f>
         <v>1200</v>
       </c>
-      <c r="F6" s="4">
-        <f t="shared" ref="F6:F24" si="1">C6*5</f>
+      <c r="H6" s="4">
+        <f t="shared" ref="H6:H24" si="3">C6*5</f>
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" ref="H6:H24" si="2">10+C6-1</f>
+      <c r="I6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ref="J6:J24" si="4">10+C6-1</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="2:8">
+      <c r="K6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="2:12">
       <c r="B7" s="4">
-        <v>11001</v>
+        <v>111003</v>
       </c>
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>skillname_111003</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_111003</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="2"/>
         <v>1300</v>
       </c>
-      <c r="F7" s="4">
-        <f t="shared" si="1"/>
+      <c r="H7" s="4">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="5">
-        <f t="shared" si="2"/>
+      <c r="I7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7"/>
+      <c r="K7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="10"/>
       <c r="B8" s="4">
-        <v>11001</v>
+        <v>111004</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>skillname_111004</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_111004</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="F8" s="4">
-        <f t="shared" si="1"/>
+      <c r="H8" s="4">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="2"/>
+      <c r="I8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="K8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" s="4">
-        <v>11001</v>
+        <v>111005</v>
       </c>
       <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>skillname_111005</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_111005</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="F9" s="4">
-        <f t="shared" si="1"/>
+      <c r="H9" s="4">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="2"/>
+      <c r="I9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="K9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" s="4">
-        <v>11001</v>
+        <v>111006</v>
       </c>
       <c r="C10" s="4">
         <v>6</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>skillname_111006</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_111006</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-      <c r="F10" s="4">
-        <f t="shared" si="1"/>
+      <c r="H10" s="4">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="2"/>
+      <c r="I10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="K10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" s="4">
-        <v>11001</v>
+        <v>111007</v>
       </c>
       <c r="C11" s="4">
         <v>7</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>skillname_111007</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_111007</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="2"/>
         <v>1700</v>
       </c>
-      <c r="F11" s="4">
-        <f t="shared" si="1"/>
+      <c r="H11" s="4">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="2"/>
+      <c r="I11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="K11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="5">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="4">
-        <v>11001</v>
+        <v>111008</v>
       </c>
       <c r="C12" s="4">
         <v>8</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>skillname_111008</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_111008</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" si="1"/>
+      <c r="H12" s="4">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="2"/>
+      <c r="I12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="K12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="4">
-        <v>11001</v>
+        <v>111009</v>
       </c>
       <c r="C13" s="4">
         <v>9</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>skillname_111009</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_111009</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="2"/>
         <v>1900</v>
       </c>
-      <c r="F13" s="4">
-        <f t="shared" si="1"/>
+      <c r="H13" s="4">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="2"/>
+      <c r="I13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="K13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="5">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="4">
-        <v>11001</v>
+        <v>111010</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
+        <v>skillname_111010</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_111010</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="1"/>
+      <c r="H14" s="4">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="2"/>
+      <c r="I14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="K14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="4">
-        <v>11002</v>
+        <v>112001</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>skillname_112001</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_112001</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="4">
         <f>1500+C15*150</f>
         <v>1650</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="1"/>
+      <c r="H15" s="4">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="2"/>
+      <c r="I15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="K15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" s="4">
-        <v>11002</v>
+        <v>112002</v>
       </c>
       <c r="C16" s="4">
         <v>2</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" ref="E16:E24" si="3">1500+C16*150</f>
+      <c r="D16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>skillname_112002</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_112002</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" ref="G16:G24" si="5">1500+C16*150</f>
         <v>1800</v>
       </c>
-      <c r="F16" s="4">
-        <f t="shared" si="1"/>
+      <c r="H16" s="4">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="5">
-        <f t="shared" si="2"/>
+      <c r="I16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="K16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="4">
-        <v>11002</v>
+        <v>112003</v>
       </c>
       <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>skillname_112003</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_112003</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="5"/>
+        <v>1950</v>
+      </c>
+      <c r="H17" s="4">
         <f t="shared" si="3"/>
-        <v>1950</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="2"/>
+      <c r="I17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="K17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="4">
-        <v>11002</v>
+        <v>112004</v>
       </c>
       <c r="C18" s="4">
         <v>4</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>skillname_112004</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_112004</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="5"/>
+        <v>2100</v>
+      </c>
+      <c r="H18" s="4">
         <f t="shared" si="3"/>
-        <v>2100</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="2"/>
+      <c r="I18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="K18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="4">
-        <v>11002</v>
+        <v>112005</v>
       </c>
       <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>skillname_112005</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_112005</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="5"/>
+        <v>2250</v>
+      </c>
+      <c r="H19" s="4">
         <f t="shared" si="3"/>
-        <v>2250</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="2"/>
+      <c r="I19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="K19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" s="4">
-        <v>11002</v>
+        <v>112006</v>
       </c>
       <c r="C20" s="4">
         <v>6</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>skillname_112006</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_112006</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="5"/>
+        <v>2400</v>
+      </c>
+      <c r="H20" s="4">
         <f t="shared" si="3"/>
-        <v>2400</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="2"/>
+      <c r="I20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="K20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" s="4">
-        <v>11002</v>
+        <v>112007</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>skillname_112007</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_112007</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="5"/>
+        <v>2550</v>
+      </c>
+      <c r="H21" s="4">
         <f t="shared" si="3"/>
-        <v>2550</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="2"/>
+      <c r="I21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="K21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="5">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="4">
-        <v>11002</v>
+        <v>112008</v>
       </c>
       <c r="C22" s="4">
         <v>8</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>skillname_112008</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_112008</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="5"/>
+        <v>2700</v>
+      </c>
+      <c r="H22" s="4">
         <f t="shared" si="3"/>
-        <v>2700</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="2"/>
+      <c r="I22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="K22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" s="4">
-        <v>11002</v>
+        <v>112009</v>
       </c>
       <c r="C23" s="4">
         <v>9</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>skillname_112009</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_112009</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="5"/>
+        <v>2850</v>
+      </c>
+      <c r="H23" s="4">
         <f t="shared" si="3"/>
-        <v>2850</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="2"/>
+      <c r="I23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="K23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="5">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" s="4">
-        <v>11002</v>
+        <v>112010</v>
       </c>
       <c r="C24" s="4">
         <v>10</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>skillname_112010</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>skilldesc_112010</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="H24" s="4">
         <f t="shared" si="3"/>
-        <v>3000</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="2"/>
+      <c r="I24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="K24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="F25" s="9"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:8">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="F26" s="9"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="F27" s="9"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:8">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="F28" s="9"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="F29" s="9"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="2:8">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="F30" s="9"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="2:8">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="F31" s="9"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="2:8">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="F32" s="9"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="2:6">
+      <c r="F33" s="9"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="2:6">
+      <c r="F34" s="9"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="2:8">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="F35" s="9"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="2:8">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="2:6">
+      <c r="F36" s="9"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="2:8">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="2:6">
+      <c r="F37" s="9"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="2:8">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="2:6">
+      <c r="F38" s="9"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="6"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="2:6">
+      <c r="F39" s="9"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="2:6">
+      <c r="F40" s="9"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="2:6">
+      <c r="F41" s="9"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="2:8">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="2:6">
+      <c r="F42" s="9"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="2:8">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="F43" s="9"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="2:8">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="2:6">
+      <c r="F44" s="9"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:8">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="2:6">
+      <c r="F45" s="9"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="2:8">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="2:6">
+      <c r="F46" s="9"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="2:8">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="2:6">
+      <c r="F47" s="9"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="2:8">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="2:6">
+      <c r="F48" s="9"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="2:8">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="2:6">
+      <c r="F49" s="9"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="2:8">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="2:6">
+      <c r="F50" s="9"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="2:8">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="2:6">
+      <c r="F51" s="9"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="2:6">
+      <c r="F52" s="9"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="6"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="2:6">
+      <c r="F53" s="9"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="2:6">
+      <c r="F54" s="9"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="6"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="2:6">
+      <c r="F55" s="9"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="2:6">
+      <c r="F56" s="9"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="2:6">
+      <c r="F57" s="9"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="2:8">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="2:6">
+      <c r="F58" s="9"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="2:8">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="2:6">
+      <c r="F59" s="9"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="2:8">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="2:6">
+      <c r="F60" s="9"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="2:8">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="2:6">
+      <c r="F61" s="9"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="2:8">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="2:6">
+      <c r="F62" s="9"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="2:8">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="6"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="2:6">
+      <c r="F63" s="9"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="2:8">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="2:6">
+      <c r="F64" s="9"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="2:8">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="2:6">
+      <c r="F65" s="9"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="2:8">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="6"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="2:6">
+      <c r="F66" s="9"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="2:8">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="2:6">
+      <c r="F67" s="9"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="2:8">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="6"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="2:6">
+      <c r="F68" s="9"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="2:8">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="6"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="2:6">
+      <c r="F69" s="9"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="2:8">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="6"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="2:6">
+      <c r="F70" s="9"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="2:8">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="6"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="2:6">
+      <c r="F71" s="9"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="2:8">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="6"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="2:6">
+      <c r="F72" s="9"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="2:8">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="2:6">
+      <c r="F73" s="9"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="2:8">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="6"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="2:3">
+      <c r="F74" s="9"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="2:5">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="2:3">
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="2:5">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="2:3">
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="2:5">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="2:3">
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="2:5">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="2:3">
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="2:5">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="2:3">
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="2:5">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="2:3">
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="2:5">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="2:3">
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="2:5">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="2:3">
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="2:5">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="2:3">
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="2:5">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="2:3">
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="2:5">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-    </row>
-    <row r="86" spans="2:3">
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="2:5">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="2:3">
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="2:5">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="2:3">
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="2:5">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="2:3">
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="2:5">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="2:3">
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="2:5">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="2:3">
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="2:5">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="2:3">
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="2:5">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="2:3">
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="2:5">
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="2:3">
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="2:5">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="2:3">
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="2:5">
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="2:3">
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="2:5">
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
-    </row>
-    <row r="97" spans="2:3">
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="2:5">
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
-    </row>
-    <row r="98" spans="2:3">
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="2:5">
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22260" windowHeight="10455"/>
+    <workbookView windowWidth="24645" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConfigProto" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -56,6 +56,12 @@
     <t>SkillRange</t>
   </si>
   <si>
+    <t>SkillTargetRangeParam</t>
+  </si>
+  <si>
+    <t>SkillHitTime</t>
+  </si>
+  <si>
     <t>Consume</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t>long</t>
   </si>
   <si>
+    <t>SkillTargetRangeParams</t>
+  </si>
+  <si>
     <t>CurrencyType</t>
   </si>
   <si>
@@ -89,6 +98,12 @@
     <t>c</t>
   </si>
   <si>
+    <t>$type</t>
+  </si>
+  <si>
+    <t>$value</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -113,7 +128,16 @@
     <t>附加百分比值</t>
   </si>
   <si>
-    <t>技能作用范围</t>
+    <t>技能范围</t>
+  </si>
+  <si>
+    <t>技能作用参数类型</t>
+  </si>
+  <si>
+    <t>技能作用参数</t>
+  </si>
+  <si>
+    <t>技能命中时间</t>
   </si>
   <si>
     <t>技能消耗</t>
@@ -131,6 +155,9 @@
     <t>单体</t>
   </si>
   <si>
+    <t>SkillTargetSingle</t>
+  </si>
+  <si>
     <t>银币</t>
   </si>
   <si>
@@ -138,6 +165,18 @@
   </si>
   <si>
     <t>自身周围圆形</t>
+  </si>
+  <si>
+    <t>SkillTargetCycle</t>
+  </si>
+  <si>
+    <t>技能113001</t>
+  </si>
+  <si>
+    <t>前方矩形</t>
+  </si>
+  <si>
+    <t>SkillTargetRect</t>
   </si>
 </sst>
 </file>
@@ -321,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,7 +696,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,16 +720,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -699,83 +744,83 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -786,26 +831,29 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1155,1547 +1203,2159 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L98"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="5" customWidth="1"/>
-    <col min="2" max="3" width="12.625" style="5" customWidth="1"/>
-    <col min="4" max="5" width="22.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="5" customWidth="1"/>
-    <col min="7" max="8" width="16.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.25" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.625" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="21.125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="12.625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="22.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="6" customWidth="1"/>
+    <col min="7" max="9" width="16.125" style="6" customWidth="1"/>
+    <col min="10" max="13" width="27.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="13.25" style="6" customWidth="1"/>
+    <col min="15" max="15" width="20" style="6" customWidth="1"/>
+    <col min="16" max="16" width="20.625" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:16">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:12">
-      <c r="A2" s="7" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:16">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="J2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:12">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="K4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:16">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="4">
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="5">
         <v>111001</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="str">
-        <f>_xlfn.CONCAT("skillname_",B5)</f>
+      <c r="D6" s="5" t="str">
+        <f>_xlfn.CONCAT("skillname_",B6)</f>
         <v>skillname_111001</v>
       </c>
-      <c r="E5" s="4" t="str">
-        <f>_xlfn.CONCAT("skilldesc_",B5)</f>
+      <c r="E6" s="5" t="str">
+        <f>_xlfn.CONCAT("skilldesc_",B6)</f>
         <v>skilldesc_111001</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="4">
-        <f>1000+100*C5</f>
+      <c r="F6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5">
+        <f>1000+100*C6</f>
         <v>1100</v>
       </c>
-      <c r="H5" s="4">
-        <f>C5*5</f>
+      <c r="H6" s="5">
+        <f>C6*5</f>
         <v>5</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="5">
-        <f>10+C5-1</f>
+      <c r="I6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="6">
+        <f>10+C6-1</f>
         <v>10</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="O6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="4">
+    <row r="7" spans="2:16">
+      <c r="B7" s="5">
         <v>111002</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" ref="D6:D24" si="0">_xlfn.CONCAT("skillname_",B6)</f>
+      <c r="D7" s="5" t="str">
+        <f t="shared" ref="D7:D25" si="0">_xlfn.CONCAT("skillname_",B7)</f>
         <v>skillname_111002</v>
       </c>
-      <c r="E6" s="4" t="str">
-        <f t="shared" ref="E6:E24" si="1">_xlfn.CONCAT("skilldesc_",B6)</f>
+      <c r="E7" s="5" t="str">
+        <f t="shared" ref="E7:E25" si="1">_xlfn.CONCAT("skilldesc_",B7)</f>
         <v>skilldesc_111002</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="4">
-        <f t="shared" ref="G6:G14" si="2">1000+100*C6</f>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" ref="G7:G15" si="2">1000+100*C7</f>
         <v>1200</v>
       </c>
-      <c r="H6" s="4">
-        <f t="shared" ref="H6:H24" si="3">C6*5</f>
+      <c r="H7" s="5">
+        <f t="shared" ref="H7:H25" si="3">C7*5</f>
         <v>10</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" ref="J6:J24" si="4">10+C6-1</f>
+      <c r="I7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" ref="N7:N25" si="4">10+C7-1</f>
         <v>11</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="O7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="6">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="2:12">
-      <c r="B7" s="4">
+    <row r="8" s="5" customFormat="1" spans="2:16">
+      <c r="B8" s="5">
         <v>111003</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="4" t="str">
+      <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_111003</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_111003</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="2"/>
         <v>1300</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H8" s="5">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="5">
+      <c r="O8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="6">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="10"/>
-      <c r="B8" s="4">
+    <row r="9" spans="2:16">
+      <c r="B9" s="5">
         <v>111004</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="str">
+      <c r="D9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_111004</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_111004</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="F9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="5">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="I9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="6">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="5">
+      <c r="O9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="4">
+    <row r="10" spans="2:16">
+      <c r="B10" s="5">
         <v>111005</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_111005</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_111005</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="4">
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H10" s="5">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="I10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="6">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="O10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="6">
         <v>5000</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="4">
+    <row r="11" spans="2:16">
+      <c r="B11" s="5">
         <v>111006</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C11" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_111006</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_111006</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="5">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="6">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="O11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
-      <c r="B11" s="4">
+    <row r="12" spans="2:16">
+      <c r="B12" s="5">
         <v>111007</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C12" s="5">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="str">
+      <c r="D12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_111007</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_111007</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="2"/>
         <v>1700</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H12" s="5">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="I12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="6">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="O12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="6">
         <v>7000</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="4">
+    <row r="13" spans="2:16">
+      <c r="B13" s="5">
         <v>111008</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C13" s="5">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="str">
+      <c r="D13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_111008</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_111008</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="I13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="6">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="O13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="6">
         <v>8000</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
-      <c r="B13" s="4">
+    <row r="14" spans="2:16">
+      <c r="B14" s="5">
         <v>111009</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="5">
         <v>9</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_111009</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_111009</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="4">
+      <c r="F14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="2"/>
         <v>1900</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="5">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="I14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="6">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="O14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="6">
         <v>9000</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="B14" s="4">
+    <row r="15" spans="2:16">
+      <c r="B15" s="5">
         <v>111010</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C15" s="5">
         <v>10</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_111010</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_111010</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="4">
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="5">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="I15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="6">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="O15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="B15" s="4">
+    <row r="16" spans="2:16">
+      <c r="B16" s="5">
         <v>112001</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_112001</v>
       </c>
-      <c r="E15" s="4" t="str">
+      <c r="E16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_112001</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="4">
-        <f>1500+C15*150</f>
+      <c r="F16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="5">
+        <f>1500+C16*150</f>
         <v>1650</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="5">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="I16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
+        <v>5</v>
+      </c>
+      <c r="N16" s="6">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="O16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="4">
+    <row r="17" spans="2:16">
+      <c r="B17" s="5">
         <v>112002</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="4" t="str">
+      <c r="D17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_112002</v>
       </c>
-      <c r="E16" s="4" t="str">
+      <c r="E17" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_112002</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="4">
-        <f t="shared" ref="G16:G24" si="5">1500+C16*150</f>
+      <c r="F17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" ref="G17:G25" si="5">1500+C17*150</f>
         <v>1800</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H17" s="5">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="I17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
+        <v>5</v>
+      </c>
+      <c r="N17" s="6">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="5">
+      <c r="O17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" s="6">
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
-      <c r="B17" s="4">
+    <row r="18" spans="2:16">
+      <c r="B18" s="5">
         <v>112003</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_112003</v>
       </c>
-      <c r="E17" s="4" t="str">
+      <c r="E18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_112003</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="F18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="5"/>
         <v>1950</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H18" s="5">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="5">
+      <c r="I18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>5</v>
+      </c>
+      <c r="N18" s="6">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" s="5">
+      <c r="O18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="6">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
-      <c r="B18" s="4">
+    <row r="19" spans="2:16">
+      <c r="B19" s="5">
         <v>112004</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C19" s="5">
         <v>4</v>
       </c>
-      <c r="D18" s="4" t="str">
+      <c r="D19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_112004</v>
       </c>
-      <c r="E18" s="4" t="str">
+      <c r="E19" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_112004</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="4">
+      <c r="F19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="5"/>
         <v>2100</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H19" s="5">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="I19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
+        <v>5</v>
+      </c>
+      <c r="N19" s="6">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="5">
+      <c r="O19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="4">
+    <row r="20" spans="2:16">
+      <c r="B20" s="5">
         <v>112005</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C20" s="5">
         <v>5</v>
       </c>
-      <c r="D19" s="4" t="str">
+      <c r="D20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_112005</v>
       </c>
-      <c r="E19" s="4" t="str">
+      <c r="E20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_112005</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="5"/>
         <v>2250</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H20" s="5">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="5">
+      <c r="I20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="5">
+      <c r="O20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="6">
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="4">
+    <row r="21" spans="2:16">
+      <c r="B21" s="5">
         <v>112006</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C21" s="5">
         <v>6</v>
       </c>
-      <c r="D20" s="4" t="str">
+      <c r="D21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_112006</v>
       </c>
-      <c r="E20" s="4" t="str">
+      <c r="E21" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_112006</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="4">
+      <c r="F21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="5"/>
         <v>2400</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H21" s="5">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="5">
+      <c r="I21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
+        <v>5</v>
+      </c>
+      <c r="N21" s="6">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="5">
+      <c r="O21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="4">
+    <row r="22" spans="2:16">
+      <c r="B22" s="5">
         <v>112007</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="5">
         <v>7</v>
       </c>
-      <c r="D21" s="4" t="str">
+      <c r="D22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_112007</v>
       </c>
-      <c r="E21" s="4" t="str">
+      <c r="E22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_112007</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="F22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="5"/>
         <v>2550</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H22" s="5">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="5">
+      <c r="I22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6">
+        <v>5</v>
+      </c>
+      <c r="N22" s="6">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="5">
+      <c r="O22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="6">
         <v>7000</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="4">
+    <row r="23" spans="2:16">
+      <c r="B23" s="5">
         <v>112008</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C23" s="5">
         <v>8</v>
       </c>
-      <c r="D22" s="4" t="str">
+      <c r="D23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_112008</v>
       </c>
-      <c r="E22" s="4" t="str">
+      <c r="E23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_112008</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="4">
+      <c r="F23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="5">
         <f t="shared" si="5"/>
         <v>2700</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H23" s="5">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="I23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L23" s="6">
+        <v>5</v>
+      </c>
+      <c r="N23" s="6">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="5">
+      <c r="O23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="6">
         <v>8000</v>
       </c>
     </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="4">
+    <row r="24" spans="2:16">
+      <c r="B24" s="5">
         <v>112009</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="5">
         <v>9</v>
       </c>
-      <c r="D23" s="4" t="str">
+      <c r="D24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_112009</v>
       </c>
-      <c r="E23" s="4" t="str">
+      <c r="E24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_112009</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="4">
+      <c r="F24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="5">
         <f t="shared" si="5"/>
         <v>2850</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="5">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="I24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L24" s="6">
+        <v>5</v>
+      </c>
+      <c r="N24" s="6">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" s="5">
+      <c r="O24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" s="6">
         <v>9000</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
-      <c r="B24" s="4">
+    <row r="25" spans="2:16">
+      <c r="B25" s="5">
         <v>112010</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C25" s="5">
         <v>10</v>
       </c>
-      <c r="D24" s="4" t="str">
+      <c r="D25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>skillname_112010</v>
       </c>
-      <c r="E24" s="4" t="str">
+      <c r="E25" s="5" t="str">
         <f t="shared" si="1"/>
         <v>skilldesc_112010</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="F25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="5">
         <f t="shared" si="5"/>
         <v>3000</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H25" s="5">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="5">
+      <c r="I25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6">
+        <v>5</v>
+      </c>
+      <c r="N25" s="6">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="5">
+      <c r="O25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+    <row r="26" spans="2:16">
+      <c r="B26" s="5">
+        <v>113001</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f t="shared" ref="D26:D35" si="6">_xlfn.CONCAT("skillname_",B26)</f>
+        <v>skillname_113001</v>
+      </c>
+      <c r="E26" s="5" t="str">
+        <f t="shared" ref="E26:E35" si="7">_xlfn.CONCAT("skilldesc_",B26)</f>
+        <v>skilldesc_113001</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" ref="G26:G35" si="8">1500+C26*150</f>
+        <v>1650</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" ref="H26:H35" si="9">C26*5</f>
+        <v>5</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="6">
+        <v>3</v>
+      </c>
+      <c r="L26" s="6">
+        <v>6</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" ref="N26:N35" si="10">10+C26-1</f>
+        <v>10</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="6">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="5">
+        <v>113002</v>
+      </c>
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>skillname_113002</v>
+      </c>
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>skilldesc_113002</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="8"/>
+        <v>1800</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="6">
+        <v>3</v>
+      </c>
+      <c r="L27" s="6">
+        <v>6</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" s="6">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="5">
+        <v>113003</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>skillname_113003</v>
+      </c>
+      <c r="E28" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>skilldesc_113003</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="8"/>
+        <v>1950</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="6">
+        <v>3</v>
+      </c>
+      <c r="L28" s="6">
+        <v>6</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" s="6">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="5">
+        <v>113004</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>skillname_113004</v>
+      </c>
+      <c r="E29" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>skilldesc_113004</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="8"/>
+        <v>2100</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="6">
+        <v>3</v>
+      </c>
+      <c r="L29" s="6">
+        <v>6</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" s="6">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="5">
+        <v>113005</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5</v>
+      </c>
+      <c r="D30" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>skillname_113005</v>
+      </c>
+      <c r="E30" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>skilldesc_113005</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="8"/>
+        <v>2250</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="6">
+        <v>3</v>
+      </c>
+      <c r="L30" s="6">
+        <v>6</v>
+      </c>
+      <c r="N30" s="6">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30" s="6">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="B31" s="5">
+        <v>113006</v>
+      </c>
+      <c r="C31" s="5">
+        <v>6</v>
+      </c>
+      <c r="D31" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>skillname_113006</v>
+      </c>
+      <c r="E31" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>skilldesc_113006</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="8"/>
+        <v>2400</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="6">
+        <v>3</v>
+      </c>
+      <c r="L31" s="6">
+        <v>6</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="6">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" s="5">
+        <v>113007</v>
+      </c>
+      <c r="C32" s="5">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>skillname_113007</v>
+      </c>
+      <c r="E32" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>skilldesc_113007</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="8"/>
+        <v>2550</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="6">
+        <v>3</v>
+      </c>
+      <c r="L32" s="6">
+        <v>6</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="6">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="B33" s="5">
+        <v>113008</v>
+      </c>
+      <c r="C33" s="5">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>skillname_113008</v>
+      </c>
+      <c r="E33" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>skilldesc_113008</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="8"/>
+        <v>2700</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="6">
+        <v>3</v>
+      </c>
+      <c r="L33" s="6">
+        <v>6</v>
+      </c>
+      <c r="N33" s="6">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P33" s="6">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="B34" s="5">
+        <v>113009</v>
+      </c>
+      <c r="C34" s="5">
+        <v>9</v>
+      </c>
+      <c r="D34" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>skillname_113009</v>
+      </c>
+      <c r="E34" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>skilldesc_113009</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="8"/>
+        <v>2850</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="6">
+        <v>3</v>
+      </c>
+      <c r="L34" s="6">
+        <v>6</v>
+      </c>
+      <c r="N34" s="6">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="6">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="B35" s="5">
+        <v>113010</v>
+      </c>
+      <c r="C35" s="5">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>skillname_113010</v>
+      </c>
+      <c r="E35" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>skilldesc_113010</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="6">
+        <v>3</v>
+      </c>
+      <c r="L35" s="6">
+        <v>6</v>
+      </c>
+      <c r="N35" s="6">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" s="6">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="2:5">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="2:5">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
     </row>
     <row r="83" spans="2:5">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
     </row>
     <row r="85" spans="2:5">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="2:5">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
     </row>
     <row r="87" spans="2:5">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
     </row>
     <row r="88" spans="2:5">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
     </row>
     <row r="89" spans="2:5">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
     </row>
     <row r="94" spans="2:5">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
     </row>
     <row r="95" spans="2:5">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
     </row>
     <row r="96" spans="2:5">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
     </row>
     <row r="97" spans="2:5">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/SkillConfig.xlsx
+++ b/Unity/Assets/Config/Excel/SkillConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -38,12 +38,6 @@
     <t>Level</t>
   </si>
   <si>
-    <t>SkillName</t>
-  </si>
-  <si>
-    <t>SkillDesc</t>
-  </si>
-  <si>
     <t>##Desc</t>
   </si>
   <si>
@@ -53,12 +47,6 @@
     <t>Ratio</t>
   </si>
   <si>
-    <t>SkillRange</t>
-  </si>
-  <si>
-    <t>SkillTargetRangeParam</t>
-  </si>
-  <si>
     <t>SkillHitTime</t>
   </si>
   <si>
@@ -77,33 +65,18 @@
     <t>int</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
     <t>long</t>
   </si>
   <si>
-    <t>SkillTargetRangeParams</t>
-  </si>
-  <si>
     <t>CurrencyType</t>
   </si>
   <si>
     <t>##group</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>$type</t>
-  </si>
-  <si>
-    <t>$value</t>
-  </si>
-  <si>
     <t>##</t>
   </si>
   <si>
@@ -113,12 +86,6 @@
     <t>技能等级</t>
   </si>
   <si>
-    <t>技能名称</t>
-  </si>
-  <si>
-    <t>技能描述</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
@@ -128,15 +95,6 @@
     <t>附加百分比值</t>
   </si>
   <si>
-    <t>技能范围</t>
-  </si>
-  <si>
-    <t>技能作用参数类型</t>
-  </si>
-  <si>
-    <t>技能作用参数</t>
-  </si>
-  <si>
     <t>技能命中时间</t>
   </si>
   <si>
@@ -152,31 +110,13 @@
     <t>技能11001</t>
   </si>
   <si>
-    <t>单体</t>
-  </si>
-  <si>
-    <t>SkillTargetSingle</t>
-  </si>
-  <si>
     <t>银币</t>
   </si>
   <si>
     <t>技能11002</t>
   </si>
   <si>
-    <t>自身周围圆形</t>
-  </si>
-  <si>
-    <t>SkillTargetCycle</t>
-  </si>
-  <si>
     <t>技能113001</t>
-  </si>
-  <si>
-    <t>前方矩形</t>
-  </si>
-  <si>
-    <t>SkillTargetRect</t>
   </si>
 </sst>
 </file>
@@ -840,20 +780,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1203,27 +1143,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="21.125" style="6" customWidth="1"/>
     <col min="2" max="3" width="12.625" style="6" customWidth="1"/>
-    <col min="4" max="5" width="22.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="6" customWidth="1"/>
-    <col min="7" max="9" width="16.125" style="6" customWidth="1"/>
-    <col min="10" max="13" width="27.5" style="6" customWidth="1"/>
-    <col min="14" max="14" width="13.25" style="6" customWidth="1"/>
-    <col min="15" max="15" width="20" style="6" customWidth="1"/>
-    <col min="16" max="16" width="20.625" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="6"/>
+    <col min="4" max="4" width="13.875" style="6" customWidth="1"/>
+    <col min="5" max="6" width="16.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20" style="6" customWidth="1"/>
+    <col min="10" max="10" width="20.625" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1181,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1251,2111 +1190,1334 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:16">
-      <c r="A2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:13">
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:16">
-      <c r="A5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="5">
         <v>111001</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="str">
-        <f>_xlfn.CONCAT("skillname_",B6)</f>
-        <v>skillname_111001</v>
-      </c>
-      <c r="E6" s="5" t="str">
-        <f>_xlfn.CONCAT("skilldesc_",B6)</f>
-        <v>skilldesc_111001</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5">
         <f>1000+100*C6</f>
         <v>1100</v>
       </c>
-      <c r="H6" s="5">
+      <c r="F6" s="5">
         <f>C6*5</f>
         <v>5</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="H6" s="6">
         <f>10+C6-1</f>
         <v>10</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="I6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:10">
       <c r="B7" s="5">
         <v>111002</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="5" t="str">
-        <f t="shared" ref="D7:D25" si="0">_xlfn.CONCAT("skillname_",B7)</f>
-        <v>skillname_111002</v>
-      </c>
-      <c r="E7" s="5" t="str">
-        <f t="shared" ref="E7:E25" si="1">_xlfn.CONCAT("skilldesc_",B7)</f>
-        <v>skilldesc_111002</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" ref="G7:G15" si="2">1000+100*C7</f>
+      <c r="D7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E15" si="0">1000+100*C7</f>
         <v>1200</v>
       </c>
-      <c r="H7" s="5">
-        <f t="shared" ref="H7:H25" si="3">C7*5</f>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7:F25" si="1">C7*5</f>
         <v>10</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="6">
-        <f t="shared" ref="N7:N25" si="4">10+C7-1</f>
+      <c r="H7" s="6">
+        <f t="shared" ref="H7:H25" si="2">10+C7-1</f>
         <v>11</v>
       </c>
-      <c r="O7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="I7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="6">
         <v>2000</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" spans="2:16">
+    <row r="8" s="5" customFormat="1" spans="2:10">
       <c r="B8" s="5">
         <v>111003</v>
       </c>
       <c r="C8" s="5">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="str">
+      <c r="D8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>skillname_111003</v>
-      </c>
-      <c r="E8" s="5" t="str">
+        <v>1300</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_111003</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="5">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>1300</v>
-      </c>
-      <c r="H8" s="5">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6">
-        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="I8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="6">
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:10">
       <c r="B9" s="5">
         <v>111004</v>
       </c>
       <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="str">
+      <c r="D9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>skillname_111004</v>
-      </c>
-      <c r="E9" s="5" t="str">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_111004</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="5">
+        <v>20</v>
+      </c>
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>1400</v>
-      </c>
-      <c r="H9" s="5">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="6">
-        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="O9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="I9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:10">
       <c r="B10" s="5">
         <v>111005</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D10" s="5" t="str">
+      <c r="D10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>skillname_111005</v>
-      </c>
-      <c r="E10" s="5" t="str">
+        <v>1500</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_111005</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="5">
+        <v>25</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>1500</v>
-      </c>
-      <c r="H10" s="5">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="I10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="6">
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:10">
       <c r="B11" s="5">
         <v>111006</v>
       </c>
       <c r="C11" s="5">
         <v>6</v>
       </c>
-      <c r="D11" s="5" t="str">
+      <c r="D11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>skillname_111006</v>
-      </c>
-      <c r="E11" s="5" t="str">
+        <v>1600</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_111006</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="5">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" si="2"/>
-        <v>1600</v>
-      </c>
-      <c r="H11" s="5">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="6">
-        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="O11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="I11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:10">
       <c r="B12" s="5">
         <v>111007</v>
       </c>
       <c r="C12" s="5">
         <v>7</v>
       </c>
-      <c r="D12" s="5" t="str">
+      <c r="D12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>skillname_111007</v>
-      </c>
-      <c r="E12" s="5" t="str">
+        <v>1700</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_111007</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="5">
+        <v>35</v>
+      </c>
+      <c r="H12" s="6">
         <f t="shared" si="2"/>
-        <v>1700</v>
-      </c>
-      <c r="H12" s="5">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="6">
-        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="O12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="I12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="6">
         <v>7000</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:10">
       <c r="B13" s="5">
         <v>111008</v>
       </c>
       <c r="C13" s="5">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="str">
+      <c r="D13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>skillname_111008</v>
-      </c>
-      <c r="E13" s="5" t="str">
+        <v>1800</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_111008</v>
-      </c>
-      <c r="F13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="6">
         <f t="shared" si="2"/>
-        <v>1800</v>
-      </c>
-      <c r="H13" s="5">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="6">
-        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="I13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="6">
         <v>8000</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:10">
       <c r="B14" s="5">
         <v>111009</v>
       </c>
       <c r="C14" s="5">
         <v>9</v>
       </c>
-      <c r="D14" s="5" t="str">
+      <c r="D14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>skillname_111009</v>
-      </c>
-      <c r="E14" s="5" t="str">
+        <v>1900</v>
+      </c>
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_111009</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="5">
+        <v>45</v>
+      </c>
+      <c r="H14" s="6">
         <f t="shared" si="2"/>
-        <v>1900</v>
-      </c>
-      <c r="H14" s="5">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="6">
-        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="I14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="6">
         <v>9000</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:10">
       <c r="B15" s="5">
         <v>111010</v>
       </c>
       <c r="C15" s="5">
         <v>10</v>
       </c>
-      <c r="D15" s="5" t="str">
+      <c r="D15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>skillname_111010</v>
-      </c>
-      <c r="E15" s="5" t="str">
+        <v>2000</v>
+      </c>
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_111010</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="5">
+        <v>50</v>
+      </c>
+      <c r="H15" s="6">
         <f t="shared" si="2"/>
-        <v>2000</v>
-      </c>
-      <c r="H15" s="5">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="6">
-        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="6">
+      <c r="I15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:10">
       <c r="B16" s="5">
         <v>112001</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>skillname_112001</v>
-      </c>
-      <c r="E16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>skilldesc_112001</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="D16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="5">
         <f>1500+C16*150</f>
         <v>1650</v>
       </c>
-      <c r="H16" s="5">
-        <f t="shared" si="3"/>
+      <c r="F16" s="5">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6">
-        <v>5</v>
-      </c>
-      <c r="N16" s="6">
-        <f t="shared" si="4"/>
+      <c r="H16" s="6">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P16" s="6">
+      <c r="I16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:10">
       <c r="B17" s="5">
         <v>112002</v>
       </c>
       <c r="C17" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>skillname_112002</v>
-      </c>
-      <c r="E17" s="5" t="str">
+      <c r="D17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" ref="E17:E25" si="3">1500+C17*150</f>
+        <v>1800</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_112002</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="5">
-        <f t="shared" ref="G17:G25" si="5">1500+C17*150</f>
-        <v>1800</v>
-      </c>
-      <c r="H17" s="5">
-        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6">
-        <v>5</v>
-      </c>
-      <c r="N17" s="6">
-        <f t="shared" si="4"/>
+      <c r="H17" s="6">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="O17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P17" s="6">
+      <c r="I17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="6">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:10">
       <c r="B18" s="5">
         <v>112003</v>
       </c>
       <c r="C18" s="5">
         <v>3</v>
       </c>
-      <c r="D18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>skillname_112003</v>
-      </c>
-      <c r="E18" s="5" t="str">
+      <c r="D18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="3"/>
+        <v>1950</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_112003</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="5">
-        <f t="shared" si="5"/>
-        <v>1950</v>
-      </c>
-      <c r="H18" s="5">
-        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" s="6">
-        <v>5</v>
-      </c>
-      <c r="N18" s="6">
-        <f t="shared" si="4"/>
+      <c r="H18" s="6">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="O18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P18" s="6">
+      <c r="I18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="6">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:10">
       <c r="B19" s="5">
         <v>112004</v>
       </c>
       <c r="C19" s="5">
         <v>4</v>
       </c>
-      <c r="D19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>skillname_112004</v>
-      </c>
-      <c r="E19" s="5" t="str">
+      <c r="D19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_112004</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="5"/>
-        <v>2100</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" s="6">
-        <v>5</v>
-      </c>
-      <c r="N19" s="6">
-        <f t="shared" si="4"/>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="O19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="6">
+      <c r="I19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:10">
       <c r="B20" s="5">
         <v>112005</v>
       </c>
       <c r="C20" s="5">
         <v>5</v>
       </c>
-      <c r="D20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>skillname_112005</v>
-      </c>
-      <c r="E20" s="5" t="str">
+      <c r="D20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="3"/>
+        <v>2250</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_112005</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="5">
-        <f t="shared" si="5"/>
-        <v>2250</v>
-      </c>
-      <c r="H20" s="5">
-        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6">
-        <v>5</v>
-      </c>
-      <c r="N20" s="6">
-        <f t="shared" si="4"/>
+      <c r="H20" s="6">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="O20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="6">
+      <c r="I20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="6">
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:10">
       <c r="B21" s="5">
         <v>112006</v>
       </c>
       <c r="C21" s="5">
         <v>6</v>
       </c>
-      <c r="D21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>skillname_112006</v>
-      </c>
-      <c r="E21" s="5" t="str">
+      <c r="D21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_112006</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="5"/>
-        <v>2400</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="6">
-        <v>5</v>
-      </c>
-      <c r="N21" s="6">
-        <f t="shared" si="4"/>
+      <c r="H21" s="6">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="O21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="6">
+      <c r="I21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:10">
       <c r="B22" s="5">
         <v>112007</v>
       </c>
       <c r="C22" s="5">
         <v>7</v>
       </c>
-      <c r="D22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>skillname_112007</v>
-      </c>
-      <c r="E22" s="5" t="str">
+      <c r="D22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="3"/>
+        <v>2550</v>
+      </c>
+      <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_112007</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="5"/>
-        <v>2550</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" s="6">
-        <v>5</v>
-      </c>
-      <c r="N22" s="6">
-        <f t="shared" si="4"/>
+      <c r="H22" s="6">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="O22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P22" s="6">
+      <c r="I22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="6">
         <v>7000</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:10">
       <c r="B23" s="5">
         <v>112008</v>
       </c>
       <c r="C23" s="5">
         <v>8</v>
       </c>
-      <c r="D23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>skillname_112008</v>
-      </c>
-      <c r="E23" s="5" t="str">
+      <c r="D23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="3"/>
+        <v>2700</v>
+      </c>
+      <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_112008</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="5"/>
-        <v>2700</v>
-      </c>
-      <c r="H23" s="5">
-        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" s="6">
-        <v>5</v>
-      </c>
-      <c r="N23" s="6">
-        <f t="shared" si="4"/>
+      <c r="H23" s="6">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="O23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P23" s="6">
+      <c r="I23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="6">
         <v>8000</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:10">
       <c r="B24" s="5">
         <v>112009</v>
       </c>
       <c r="C24" s="5">
         <v>9</v>
       </c>
-      <c r="D24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>skillname_112009</v>
-      </c>
-      <c r="E24" s="5" t="str">
+      <c r="D24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="3"/>
+        <v>2850</v>
+      </c>
+      <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_112009</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="5"/>
-        <v>2850</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" s="6">
-        <v>5</v>
-      </c>
-      <c r="N24" s="6">
-        <f t="shared" si="4"/>
+      <c r="H24" s="6">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="O24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P24" s="6">
+      <c r="I24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="6">
         <v>9000</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:10">
       <c r="B25" s="5">
         <v>112010</v>
       </c>
       <c r="C25" s="5">
         <v>10</v>
       </c>
-      <c r="D25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>skillname_112010</v>
-      </c>
-      <c r="E25" s="5" t="str">
+      <c r="D25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>skilldesc_112010</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="5">
-        <f t="shared" si="5"/>
-        <v>3000</v>
-      </c>
-      <c r="H25" s="5">
-        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" s="6">
-        <v>5</v>
-      </c>
-      <c r="N25" s="6">
-        <f t="shared" si="4"/>
+      <c r="H25" s="6">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="O25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P25" s="6">
+      <c r="I25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="6">
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:10">
       <c r="B26" s="5">
         <v>113001</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D26" s="5" t="str">
-        <f t="shared" ref="D26:D35" si="6">_xlfn.CONCAT("skillname_",B26)</f>
-        <v>skillname_113001</v>
-      </c>
-      <c r="E26" s="5" t="str">
-        <f t="shared" ref="E26:E35" si="7">_xlfn.CONCAT("skilldesc_",B26)</f>
-        <v>skilldesc_113001</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="5">
-        <f t="shared" ref="G26:G35" si="8">1500+C26*150</f>
+      <c r="D26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" ref="E26:E35" si="4">1500+C26*150</f>
         <v>1650</v>
       </c>
-      <c r="H26" s="5">
-        <f t="shared" ref="H26:H35" si="9">C26*5</f>
+      <c r="F26" s="5">
+        <f t="shared" ref="F26:F35" si="5">C26*5</f>
         <v>5</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="6">
-        <v>3</v>
-      </c>
-      <c r="L26" s="6">
-        <v>6</v>
-      </c>
-      <c r="N26" s="6">
-        <f t="shared" ref="N26:N35" si="10">10+C26-1</f>
+      <c r="H26" s="6">
+        <f t="shared" ref="H26:H35" si="6">10+C26-1</f>
         <v>10</v>
       </c>
-      <c r="O26" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="6">
+      <c r="I26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="6">
         <v>11000</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:10">
       <c r="B27" s="5">
         <v>113002</v>
       </c>
       <c r="C27" s="5">
         <v>2</v>
       </c>
-      <c r="D27" s="5" t="str">
+      <c r="D27" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="4"/>
+        <v>1800</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="H27" s="6">
         <f t="shared" si="6"/>
-        <v>skillname_113002</v>
-      </c>
-      <c r="E27" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>skilldesc_113002</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="5">
-        <f t="shared" si="8"/>
-        <v>1800</v>
-      </c>
-      <c r="H27" s="5">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="6">
-        <v>3</v>
-      </c>
-      <c r="L27" s="6">
-        <v>6</v>
-      </c>
-      <c r="N27" s="6">
-        <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="O27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="6">
+      <c r="I27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="6">
         <v>12000</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:10">
       <c r="B28" s="5">
         <v>113003</v>
       </c>
       <c r="C28" s="5">
         <v>3</v>
       </c>
-      <c r="D28" s="5" t="str">
+      <c r="D28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="4"/>
+        <v>1950</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="H28" s="6">
         <f t="shared" si="6"/>
-        <v>skillname_113003</v>
-      </c>
-      <c r="E28" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>skilldesc_113003</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G28" s="5">
-        <f t="shared" si="8"/>
-        <v>1950</v>
-      </c>
-      <c r="H28" s="5">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="6">
-        <v>3</v>
-      </c>
-      <c r="L28" s="6">
-        <v>6</v>
-      </c>
-      <c r="N28" s="6">
-        <f t="shared" si="10"/>
         <v>12</v>
       </c>
-      <c r="O28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P28" s="6">
+      <c r="I28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="6">
         <v>13000</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:10">
       <c r="B29" s="5">
         <v>113004</v>
       </c>
       <c r="C29" s="5">
         <v>4</v>
       </c>
-      <c r="D29" s="5" t="str">
+      <c r="D29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="4"/>
+        <v>2100</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="H29" s="6">
         <f t="shared" si="6"/>
-        <v>skillname_113004</v>
-      </c>
-      <c r="E29" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>skilldesc_113004</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="5">
-        <f t="shared" si="8"/>
-        <v>2100</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="6">
-        <v>3</v>
-      </c>
-      <c r="L29" s="6">
-        <v>6</v>
-      </c>
-      <c r="N29" s="6">
-        <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="O29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P29" s="6">
+      <c r="I29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="6">
         <v>14000</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:10">
       <c r="B30" s="5">
         <v>113005</v>
       </c>
       <c r="C30" s="5">
         <v>5</v>
       </c>
-      <c r="D30" s="5" t="str">
+      <c r="D30" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="4"/>
+        <v>2250</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="H30" s="6">
         <f t="shared" si="6"/>
-        <v>skillname_113005</v>
-      </c>
-      <c r="E30" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>skilldesc_113005</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="5">
-        <f t="shared" si="8"/>
-        <v>2250</v>
-      </c>
-      <c r="H30" s="5">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="6">
-        <v>3</v>
-      </c>
-      <c r="L30" s="6">
-        <v>6</v>
-      </c>
-      <c r="N30" s="6">
-        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="O30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P30" s="6">
+      <c r="I30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="6">
         <v>15000</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:10">
       <c r="B31" s="5">
         <v>113006</v>
       </c>
       <c r="C31" s="5">
         <v>6</v>
       </c>
-      <c r="D31" s="5" t="str">
+      <c r="D31" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="H31" s="6">
         <f t="shared" si="6"/>
-        <v>skillname_113006</v>
-      </c>
-      <c r="E31" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>skilldesc_113006</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" s="5">
-        <f t="shared" si="8"/>
-        <v>2400</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31" s="6">
-        <v>3</v>
-      </c>
-      <c r="L31" s="6">
-        <v>6</v>
-      </c>
-      <c r="N31" s="6">
-        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="O31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P31" s="6">
+      <c r="I31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="6">
         <v>16000</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:10">
       <c r="B32" s="5">
         <v>113007</v>
       </c>
       <c r="C32" s="5">
         <v>7</v>
       </c>
-      <c r="D32" s="5" t="str">
+      <c r="D32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="4"/>
+        <v>2550</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="H32" s="6">
         <f t="shared" si="6"/>
-        <v>skillname_113007</v>
-      </c>
-      <c r="E32" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>skilldesc_113007</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" s="5">
-        <f t="shared" si="8"/>
-        <v>2550</v>
-      </c>
-      <c r="H32" s="5">
-        <f t="shared" si="9"/>
-        <v>35</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32" s="6">
-        <v>3</v>
-      </c>
-      <c r="L32" s="6">
-        <v>6</v>
-      </c>
-      <c r="N32" s="6">
-        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="O32" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P32" s="6">
+      <c r="I32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="6">
         <v>17000</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:10">
       <c r="B33" s="5">
         <v>113008</v>
       </c>
       <c r="C33" s="5">
         <v>8</v>
       </c>
-      <c r="D33" s="5" t="str">
+      <c r="D33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="4"/>
+        <v>2700</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="H33" s="6">
         <f t="shared" si="6"/>
-        <v>skillname_113008</v>
-      </c>
-      <c r="E33" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>skilldesc_113008</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="8"/>
-        <v>2700</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="6">
-        <v>3</v>
-      </c>
-      <c r="L33" s="6">
-        <v>6</v>
-      </c>
-      <c r="N33" s="6">
-        <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="O33" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P33" s="6">
+      <c r="I33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="6">
         <v>18000</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:10">
       <c r="B34" s="5">
         <v>113009</v>
       </c>
       <c r="C34" s="5">
         <v>9</v>
       </c>
-      <c r="D34" s="5" t="str">
+      <c r="D34" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="4"/>
+        <v>2850</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="H34" s="6">
         <f t="shared" si="6"/>
-        <v>skillname_113009</v>
-      </c>
-      <c r="E34" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>skilldesc_113009</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="5">
-        <f t="shared" si="8"/>
-        <v>2850</v>
-      </c>
-      <c r="H34" s="5">
-        <f t="shared" si="9"/>
-        <v>45</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="6">
-        <v>3</v>
-      </c>
-      <c r="L34" s="6">
-        <v>6</v>
-      </c>
-      <c r="N34" s="6">
-        <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="O34" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P34" s="6">
+      <c r="I34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="6">
         <v>19000</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:10">
       <c r="B35" s="5">
         <v>113010</v>
       </c>
       <c r="C35" s="5">
         <v>10</v>
       </c>
-      <c r="D35" s="5" t="str">
+      <c r="D35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="H35" s="6">
         <f t="shared" si="6"/>
-        <v>skillname_113010</v>
-      </c>
-      <c r="E35" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>skilldesc_113010</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="5">
-        <f t="shared" si="8"/>
-        <v>3000</v>
-      </c>
-      <c r="H35" s="5">
-        <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" s="6">
-        <v>3</v>
-      </c>
-      <c r="L35" s="6">
-        <v>6</v>
-      </c>
-      <c r="N35" s="6">
-        <f t="shared" si="10"/>
         <v>19</v>
       </c>
-      <c r="O35" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P35" s="6">
+      <c r="I35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="6">
         <v>20000</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:6">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="2:9">
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="2:6">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="2:9">
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="2:6">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="2:9">
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="2:9">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="2:6">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="2:9">
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="2:6">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="2:9">
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="2:6">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="2:9">
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="2:6">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="2:9">
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="2:6">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="2:9">
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="2:6">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="2:9">
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="2:6">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="2:9">
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="2:6">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="2:9">
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="2:6">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="2:9">
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="2:6">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="11"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="2:9">
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="2:6">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="D50" s="11"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="2:9">
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="2:6">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="2:9">
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="2:6">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="2:9">
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="2:6">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="D53" s="11"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="2:9">
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="2:6">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="11"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="2:9">
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="2:6">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="D55" s="11"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="2:9">
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="2:6">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="2:9">
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="2:6">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="2:9">
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="2:6">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="2:9">
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="2:6">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="D59" s="11"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="2:9">
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="2:6">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="2:9">
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="2:6">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="2:9">
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="2:6">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="2:9">
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="2:6">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="11"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="2:9">
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="2:6">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="2:9">
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="2:6">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="D65" s="11"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="2:9">
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="2:6">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="2:9">
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="2:6">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="D67" s="11"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="2:9">
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="2:6">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="2:9">
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="2:6">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="11"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="2:9">
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="2:6">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="11"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="2:9">
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="2:6">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="2:9">
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="2:6">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="2:9">
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="2:6">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="D73" s="11"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="2:9">
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="2:6">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="D74" s="11"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="2:9">
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="2:6">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="D75" s="11"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="2:5">
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="2:3">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="2:5">
+    </row>
+    <row r="77" spans="2:3">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="2:5">
+    </row>
+    <row r="78" spans="2:3">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="2:5">
+    </row>
+    <row r="79" spans="2:3">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-    </row>
-    <row r="80" spans="2:5">
+    </row>
+    <row r="80" spans="2:3">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="2:5">
+    </row>
+    <row r="81" spans="2:3">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-    </row>
-    <row r="82" spans="2:5">
+    </row>
+    <row r="82" spans="2:3">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-    </row>
-    <row r="83" spans="2:5">
+    </row>
+    <row r="83" spans="2:3">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84" spans="2:5">
+    </row>
+    <row r="84" spans="2:3">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85" spans="2:5">
+    </row>
+    <row r="85" spans="2:3">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="2:5">
+    </row>
+    <row r="86" spans="2:3">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87" spans="2:5">
+    </row>
+    <row r="87" spans="2:3">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88" spans="2:5">
+    </row>
+    <row r="88" spans="2:3">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-    </row>
-    <row r="89" spans="2:5">
+    </row>
+    <row r="89" spans="2:3">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90" spans="2:5">
+    </row>
+    <row r="90" spans="2:3">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91" spans="2:5">
+    </row>
+    <row r="91" spans="2:3">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92" spans="2:5">
+    </row>
+    <row r="92" spans="2:3">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-    </row>
-    <row r="93" spans="2:5">
+    </row>
+    <row r="93" spans="2:3">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-    </row>
-    <row r="94" spans="2:5">
+    </row>
+    <row r="94" spans="2:3">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-    </row>
-    <row r="95" spans="2:5">
+    </row>
+    <row r="95" spans="2:3">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-    </row>
-    <row r="96" spans="2:5">
+    </row>
+    <row r="96" spans="2:3">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97" spans="2:5">
+    </row>
+    <row r="97" spans="2:3">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98" spans="2:5">
+    </row>
+    <row r="98" spans="2:3">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99" spans="2:5">
+    </row>
+    <row r="99" spans="2:3">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
